--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.5-60-9.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.5-60-9.xlsx
@@ -441,103 +441,103 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>1263</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>76</v>
-      </c>
-      <c r="F3">
-        <v>1804</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>341</v>
+        <v>1025</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>307</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -545,51 +545,51 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="F6">
-        <v>1338</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="F7">
-        <v>432</v>
+        <v>1114</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -597,51 +597,51 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B8">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="F8">
-        <v>2119</v>
+        <v>1905</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>155</v>
+      </c>
+      <c r="F9">
+        <v>1079</v>
+      </c>
+      <c r="G9" t="s">
         <v>8</v>
-      </c>
-      <c r="E9">
-        <v>314</v>
-      </c>
-      <c r="F9">
-        <v>2146</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -649,103 +649,103 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="F10">
-        <v>619</v>
+        <v>284</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="F11">
-        <v>1656</v>
+        <v>396</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="F12">
-        <v>1961</v>
+        <v>461</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="F13">
-        <v>1764</v>
+        <v>453</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -753,77 +753,77 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="F14">
-        <v>682</v>
+        <v>1523</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B15">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="F15">
-        <v>659</v>
+        <v>484</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F16">
-        <v>693</v>
+        <v>556</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -831,129 +831,129 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="F17">
-        <v>625</v>
+        <v>1426</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="F18">
-        <v>604</v>
+        <v>2299</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="F19">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="F20">
-        <v>1401</v>
+        <v>620</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>465</v>
+        <v>624</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>465</v>
+        <v>624</v>
       </c>
       <c r="F21">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -961,25 +961,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>485</v>
+        <v>649</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>485</v>
+        <v>649</v>
       </c>
       <c r="F22">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -987,51 +987,51 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>513</v>
+        <v>660</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>513</v>
+        <v>660</v>
       </c>
       <c r="F23">
-        <v>1853</v>
+        <v>2328</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>530</v>
+        <v>672</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>530</v>
+        <v>672</v>
       </c>
       <c r="F24">
-        <v>796</v>
+        <v>762</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1039,77 +1039,77 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>566</v>
+        <v>688</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>566</v>
+        <v>688</v>
       </c>
       <c r="F25">
-        <v>764</v>
+        <v>1900</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>572</v>
+        <v>722</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26">
-        <v>572</v>
+        <v>722</v>
       </c>
       <c r="F26">
-        <v>2416</v>
+        <v>813</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>587</v>
+        <v>740</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>587</v>
+        <v>740</v>
       </c>
       <c r="F27">
-        <v>759</v>
+        <v>828</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1117,51 +1117,51 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>725</v>
+        <v>791</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>725</v>
+        <v>791</v>
       </c>
       <c r="F28">
-        <v>1763</v>
+        <v>2576</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>758</v>
+        <v>835</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>758</v>
+        <v>835</v>
       </c>
       <c r="F29">
-        <v>2022</v>
+        <v>2375</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1169,155 +1169,155 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B30">
-        <v>766</v>
+        <v>853</v>
       </c>
       <c r="C30">
         <v>9</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>766</v>
+        <v>853</v>
       </c>
       <c r="F30">
-        <v>1026</v>
+        <v>2313</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B31">
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="C31">
         <v>23</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E31">
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="F31">
-        <v>2406</v>
+        <v>2652</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>786</v>
+        <v>876</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E32">
-        <v>786</v>
+        <v>876</v>
       </c>
       <c r="F32">
-        <v>2244</v>
+        <v>1017</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B33">
-        <v>796</v>
+        <v>938</v>
       </c>
       <c r="C33">
         <v>23</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E33">
-        <v>796</v>
+        <v>938</v>
       </c>
       <c r="F33">
-        <v>987</v>
+        <v>1873</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B34">
-        <v>830</v>
+        <v>1029</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>830</v>
+        <v>1029</v>
       </c>
       <c r="F34">
-        <v>2082</v>
+        <v>2195</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>842</v>
+        <v>1064</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E35">
-        <v>842</v>
+        <v>1064</v>
       </c>
       <c r="F35">
-        <v>1118</v>
+        <v>1187</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1325,51 +1325,51 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>902</v>
+        <v>1075</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>902</v>
+        <v>1075</v>
       </c>
       <c r="F36">
-        <v>1123</v>
+        <v>1205</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>937</v>
+        <v>1110</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>937</v>
+        <v>1110</v>
       </c>
       <c r="F37">
-        <v>1153</v>
+        <v>1219</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -1377,25 +1377,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B38">
-        <v>938</v>
+        <v>1134</v>
       </c>
       <c r="C38">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>29</v>
+      </c>
+      <c r="E38">
+        <v>1134</v>
+      </c>
+      <c r="F38">
+        <v>1248</v>
+      </c>
+      <c r="G38" t="s">
         <v>9</v>
-      </c>
-      <c r="D38">
-        <v>41</v>
-      </c>
-      <c r="E38">
-        <v>938</v>
-      </c>
-      <c r="F38">
-        <v>2007</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -1403,155 +1403,155 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>950</v>
+        <v>1136</v>
       </c>
       <c r="C39">
         <v>20</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>950</v>
+        <v>1136</v>
       </c>
       <c r="F39">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>1176</v>
+        <v>1140</v>
       </c>
       <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
-      <c r="D40">
-        <v>9</v>
-      </c>
       <c r="E40">
-        <v>1176</v>
+        <v>1140</v>
       </c>
       <c r="F40">
-        <v>1431</v>
+        <v>2418</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>1185</v>
+        <v>1141</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>1185</v>
+        <v>1141</v>
       </c>
       <c r="F41">
-        <v>1477</v>
+        <v>2570</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>1187</v>
+        <v>1230</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E42">
-        <v>1187</v>
+        <v>1230</v>
       </c>
       <c r="F42">
-        <v>2904</v>
+        <v>2658</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>1202</v>
+        <v>1247</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E43">
-        <v>1202</v>
+        <v>1247</v>
       </c>
       <c r="F43">
-        <v>1371</v>
+        <v>2871</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>1215</v>
+        <v>1261</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>33</v>
       </c>
       <c r="E44">
-        <v>1215</v>
+        <v>1261</v>
       </c>
       <c r="F44">
-        <v>1449</v>
+        <v>1348</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1559,51 +1559,51 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>1262</v>
+        <v>1310</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>1262</v>
+        <v>1310</v>
       </c>
       <c r="F45">
-        <v>2560</v>
+        <v>2740</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>1301</v>
+        <v>1318</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>1301</v>
+        <v>1318</v>
       </c>
       <c r="F46">
-        <v>1526</v>
+        <v>1425</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1611,100 +1611,100 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47">
-        <v>1412</v>
+        <v>1350</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>1412</v>
+        <v>1350</v>
       </c>
       <c r="F47">
-        <v>1619</v>
+        <v>1431</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B48">
-        <v>1462</v>
+        <v>1357</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>1462</v>
+        <v>1357</v>
       </c>
       <c r="F48">
-        <v>1746</v>
+        <v>1506</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>1497</v>
+        <v>1409</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>1497</v>
+        <v>1409</v>
       </c>
       <c r="F49">
-        <v>3113</v>
+        <v>2359</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B50">
-        <v>1524</v>
+        <v>1422</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E50">
-        <v>1524</v>
+        <v>1422</v>
       </c>
       <c r="F50">
-        <v>1687</v>
+        <v>2934</v>
       </c>
       <c r="G50" t="s">
         <v>10</v>
@@ -1715,22 +1715,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>1529</v>
+        <v>1488</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E51">
-        <v>1529</v>
+        <v>1488</v>
       </c>
       <c r="F51">
-        <v>2805</v>
+        <v>1638</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
@@ -1741,51 +1741,51 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>1634</v>
+        <v>1497</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>1634</v>
+        <v>1497</v>
       </c>
       <c r="F52">
-        <v>1913</v>
+        <v>1615</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B53">
-        <v>1655</v>
+        <v>1498</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E53">
-        <v>1655</v>
+        <v>1498</v>
       </c>
       <c r="F53">
-        <v>2692</v>
+        <v>1588</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -1793,129 +1793,129 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>1706</v>
+        <v>1522</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E54">
-        <v>1706</v>
+        <v>1522</v>
       </c>
       <c r="F54">
-        <v>1902</v>
+        <v>3316</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B55">
-        <v>1718</v>
+        <v>1538</v>
       </c>
       <c r="C55">
         <v>37</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>1718</v>
+        <v>1538</v>
       </c>
       <c r="F55">
-        <v>2017</v>
+        <v>1644</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <v>1719</v>
+        <v>1558</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>1719</v>
+        <v>1558</v>
       </c>
       <c r="F56">
-        <v>2005</v>
+        <v>1655</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>1719</v>
+        <v>1599</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>1719</v>
+        <v>1599</v>
       </c>
       <c r="F57">
-        <v>2771</v>
+        <v>1710</v>
       </c>
       <c r="G57" t="s">
         <v>10</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>1754</v>
+        <v>1615</v>
       </c>
       <c r="C58">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>1615</v>
+      </c>
+      <c r="F58">
+        <v>2935</v>
+      </c>
+      <c r="G58" t="s">
         <v>8</v>
-      </c>
-      <c r="E58">
-        <v>1754</v>
-      </c>
-      <c r="F58">
-        <v>1934</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>1779</v>
+        <v>1728</v>
       </c>
       <c r="C59">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>1779</v>
+        <v>1728</v>
       </c>
       <c r="F59">
-        <v>1965</v>
+        <v>1864</v>
       </c>
       <c r="G59" t="s">
         <v>10</v>
@@ -1949,54 +1949,54 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>1788</v>
+        <v>1769</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E60">
-        <v>1788</v>
+        <v>1769</v>
       </c>
       <c r="F60">
-        <v>2900</v>
+        <v>2866</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D61">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E61">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="F61">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
